--- a/src/test/resources/data/user_error_cases.xlsx
+++ b/src/test/resources/data/user_error_cases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>path</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>schemaFile</t>
+  </si>
+  <si>
+    <t>enabled</t>
   </si>
   <si>
     <t>/users</t>
@@ -706,18 +709,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1043,7 +1040,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1054,10 +1051,10 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,68 +1073,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
         <v>401</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>401</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>401</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
         <v>404</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
